--- a/Question 11/accuracyandscore.xlsx
+++ b/Question 11/accuracyandscore.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="96">
   <si>
     <t>kfold</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Average score for adaBoost using Decision Tree - Iosphere: 0.871883116883</t>
   </si>
   <si>
-    <t>AdaBoost</t>
-  </si>
-  <si>
     <t>Average score for adaBoost using Extra Tree - Iris: 0.326666666667</t>
   </si>
   <si>
@@ -72,15 +69,6 @@
     <t>Prediction accuracy for adaBoost using Decision Tree - Iosphere: 0.393333333333</t>
   </si>
   <si>
-    <t>Average score for adaBoost using Extra Tree - Iris: 0.919274537696</t>
-  </si>
-  <si>
-    <t>Average score for adaBoost using Random Forest - Iris: 0.91233997155</t>
-  </si>
-  <si>
-    <t>Average score for adaBoost using Decision Tree - Iris: 0.8856685633</t>
-  </si>
-  <si>
     <t>Prediction accuracy for adaBoost using Extra Tree - Iosphere: 0.640952380952</t>
   </si>
   <si>
@@ -298,6 +286,27 @@
   </si>
   <si>
     <t>Bagging - average Score Iosphere</t>
+  </si>
+  <si>
+    <t>AdaBoost - averge score iris</t>
+  </si>
+  <si>
+    <t>adaboost - average score iosphere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average score for adaBoost using Extra Tree - Iris: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average score for adaBoost using Random Forest - Iris: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average score for adaBoost using Decision Tree - Iris: </t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -350,6 +359,3805 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bagging</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> prediction accuracy average  - Iris</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$25,Sheet1!$C$29,Sheet1!$C$33,Sheet1!$C$37,Sheet1!$C$41)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-2.6666666666666668E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89333333333333342</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92666666666666675</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90666666666666673</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-51BE-436F-AB4D-9B6409AD879C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="436027264"/>
+        <c:axId val="436020048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="436027264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="436020048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="0"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="436020048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="436027264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Adaboost prediction accuracy average  - Iris</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.464566929133858E-2"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$25,Sheet1!$H$29,Sheet1!$H$33,Sheet1!$H$37,Sheet1!$H$41)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FFF3-42B1-B27F-15E7EEBA7C99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="566024664"/>
+        <c:axId val="566024992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="566024664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="566024992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="566024992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="566024664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Bagging prediction accuracy average  - Iosphere</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$E$25,Sheet1!$E$29,Sheet1!$E$33,Sheet1!$E$37,Sheet1!$E$41)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.50063492063500004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50476190476199989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50888888888899997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46761904761899997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50063492063500004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B276-44F7-AF73-68DA3FA16D3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="432604720"/>
+        <c:axId val="432603736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="432604720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432603736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="432603736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432604720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Adaboost prediction accuracy average  - Iosphere</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$J$25,Sheet1!$J$29,Sheet1!$J$33,Sheet1!$J$37,Sheet1!$J$41)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5336507936506667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6161904761903334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57079365079366673</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63682539682533335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64095238095233331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CC52-40E7-B94C-F2C50A1D5050}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="181143680"/>
+        <c:axId val="568526720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="181143680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="568526720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="568526720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="181143680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1962150</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A205F40E-37AA-4D89-955C-5B21B4238D34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1624012</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>842962</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C726D935-A0C6-4ECE-8CAC-E025FD19F9F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2114551</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1047751</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{412E1C0F-239D-442F-A152-A8ED0DF67AE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239001" y="10782300"/>
+          <a:ext cx="4286250" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Kfold</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>     2	       4                            6                         8                       10</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1866901</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>800101</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7296DFB7-DB4D-4768-9DEF-7085F64600FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12344401" y="10782300"/>
+          <a:ext cx="4286250" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Kfold</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>     2	       4                            6                         8                       10</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1909762</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1128712</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36CF4F76-1894-48F4-B3F1-9E2374535821}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2114551</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1047751</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E068C3C-FC1E-47DF-B880-06229333189D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239001" y="13906500"/>
+          <a:ext cx="4286250" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Kfold</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>     2	       4                            6                         8                       10</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1639660</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>855889</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9177D86B-770E-4BB6-8245-2442A1D5961A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1866901</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>800101</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2214C61D-9EED-452F-AD93-2D3E8EA22AAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12358008" y="13925550"/>
+          <a:ext cx="4294414" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Kfold</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>     2	       4                            6                         8                       10</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -615,10 +4423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,47 +4434,54 @@
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="53.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="54.42578125" customWidth="1"/>
+    <col min="4" max="4" width="63.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.140625" customWidth="1"/>
     <col min="7" max="7" width="71.140625" customWidth="1"/>
+    <col min="9" max="9" width="75.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>89</v>
+      </c>
+      <c r="H1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C2">
         <v>0.30666666666699999</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>0.80374999999999996</v>
@@ -675,21 +4490,27 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>0.32666666666659999</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C3">
         <v>0.32</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E3">
         <v>0.91748376623399996</v>
@@ -698,21 +4519,27 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>0.32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C4">
         <v>0.32666666666666</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E4">
         <v>0.91461038960999996</v>
@@ -721,21 +4548,27 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>0.32666666599999999</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C6">
         <v>0.87908961593199997</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E6">
         <v>0.84084378265399995</v>
@@ -744,21 +4577,27 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>4</v>
+        <v>91</v>
+      </c>
+      <c r="H6">
+        <v>0.91927453769599998</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C7">
         <v>0.90593883357000005</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E7">
         <v>0.92891196447199997</v>
@@ -767,21 +4606,27 @@
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>5</v>
+        <v>92</v>
+      </c>
+      <c r="H7">
+        <v>0.91233997155000002</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C8">
         <v>0.91233997155000002</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E8">
         <v>0.90602142110799999</v>
@@ -790,21 +4635,27 @@
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>6</v>
+        <v>93</v>
+      </c>
+      <c r="H8">
+        <v>0.88566856329999999</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C10">
         <v>0.92666666666700004</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E10">
         <v>0.82680693551499995</v>
@@ -813,21 +4664,27 @@
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>91</v>
+      </c>
+      <c r="H10">
+        <v>0.92666666666700004</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>0.94</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E11">
         <v>0.94038573933400005</v>
@@ -836,21 +4693,24 @@
         <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>0.93333333333333302</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E12">
         <v>0.90634132086499997</v>
@@ -859,21 +4719,24 @@
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>36</v>
+      </c>
+      <c r="I12" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C14">
         <v>0.96710526315800005</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E14">
         <v>0.82379756870999998</v>
@@ -882,21 +4745,24 @@
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>48</v>
+      </c>
+      <c r="I14" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C15">
         <v>0.95285087719299999</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E15">
         <v>0.92322938689199996</v>
@@ -905,21 +4771,24 @@
         <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>49</v>
+      </c>
+      <c r="I15" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C16">
         <v>0.94590643274899999</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E16">
         <v>0.88907241014799998</v>
@@ -928,21 +4797,24 @@
         <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>50</v>
+      </c>
+      <c r="I16" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C18">
         <v>0.94666666666699995</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E18">
         <v>0.83507936507900005</v>
@@ -951,21 +4823,24 @@
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>34</v>
+      </c>
+      <c r="I18" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C19">
         <v>0.94</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E19">
         <v>0.93722222222200002</v>
@@ -974,21 +4849,24 @@
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>60</v>
+      </c>
+      <c r="I19" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C20">
         <v>0.94666666666699995</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E20">
         <v>0.914603174603</v>
@@ -997,10 +4875,13 @@
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>19</v>
+        <v>61</v>
+      </c>
+      <c r="I20" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1011,7 +4892,7 @@
         <v>-0.03</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E22">
         <v>0.28190476190500002</v>
@@ -1020,10 +4901,19 @@
         <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>-0.01</v>
+      </c>
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22">
+        <v>0.56666666666700005</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1034,7 +4924,7 @@
         <v>-0.02</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E23">
         <v>0.64095238095200002</v>
@@ -1043,10 +4933,19 @@
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="H23">
+        <v>-0.06</v>
+      </c>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23">
+        <v>0.64095238095200002</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1057,7 +4956,7 @@
         <v>-0.03</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E24">
         <v>0.57904761904799995</v>
@@ -1066,21 +4965,57 @@
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="H24">
+        <v>-0.02</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24">
+        <v>0.39333333333300002</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25">
+        <f>AVERAGE(C22:C24)</f>
+        <v>-2.6666666666666668E-2</v>
+      </c>
+      <c r="E25">
+        <f>AVERAGE(E22:E24)</f>
+        <v>0.50063492063500004</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25">
+        <f>AVERAGE(H22:H24)</f>
+        <v>-0.03</v>
+      </c>
+      <c r="J25">
+        <f>AVERAGE(J22:J24)</f>
+        <v>0.5336507936506667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C26">
         <v>0.85</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>0.22</v>
@@ -1089,21 +5024,30 @@
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="H26">
+        <v>0.87</v>
+      </c>
+      <c r="I26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26">
+        <v>0.64095238095200002</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C27">
         <v>0.87</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E27">
         <v>0.71523809523799997</v>
@@ -1112,21 +5056,30 @@
         <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="H27">
+        <v>0.88</v>
+      </c>
+      <c r="I27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27">
+        <v>0.66571428571400004</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C28">
         <v>0.88</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E28">
         <v>0.57904761904799995</v>
@@ -1135,21 +5088,57 @@
         <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="H28">
+        <v>0.83</v>
+      </c>
+      <c r="I28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28">
+        <v>0.54190476190500003</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29">
+        <f>AVERAGE(C26:C28)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="E29">
+        <f>AVERAGE(E26:E28)</f>
+        <v>0.50476190476199989</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29">
+        <f>AVERAGE(H26:H28)</f>
+        <v>0.86</v>
+      </c>
+      <c r="J29">
+        <f>AVERAGE(J26:J28)</f>
+        <v>0.6161904761903334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C30">
-        <v>8.6999999999999994E-2</v>
+        <v>0.87</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E30">
         <v>0.24476190476199999</v>
@@ -1158,21 +5147,30 @@
         <v>6</v>
       </c>
       <c r="G30" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="H30">
+        <v>0.9</v>
+      </c>
+      <c r="I30" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30">
+        <v>0.72761904761899998</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C31">
         <v>0.9</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E31">
         <v>0.70285714285699996</v>
@@ -1181,21 +5179,30 @@
         <v>6</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="H31">
+        <v>0.91</v>
+      </c>
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31">
+        <v>0.64095238095200002</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C32">
         <v>0.91</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E32">
         <v>0.57904761904799995</v>
@@ -1204,21 +5211,57 @@
         <v>6</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>42</v>
+      </c>
+      <c r="H32">
+        <v>0.88</v>
+      </c>
+      <c r="I32" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32">
+        <v>0.34380952381000002</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33">
+        <f>AVERAGE(C30:C32)</f>
+        <v>0.89333333333333342</v>
+      </c>
+      <c r="E33">
+        <f>AVERAGE(E30:E32)</f>
+        <v>0.50888888888899997</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>94</v>
+      </c>
+      <c r="H33">
+        <f>AVERAGE(H30:H32)</f>
+        <v>0.89666666666666661</v>
+      </c>
+      <c r="J33">
+        <f>AVERAGE(J30:J32)</f>
+        <v>0.57079365079366673</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C34">
         <v>0.93</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>0.22</v>
@@ -1227,21 +5270,30 @@
         <v>8</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>54</v>
+      </c>
+      <c r="H34">
+        <v>0.93</v>
+      </c>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34">
+        <v>0.69047619047599995</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C35">
         <v>0.93</v>
       </c>
       <c r="D35" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E35">
         <v>0.71523809523799997</v>
@@ -1250,41 +5302,86 @@
         <v>8</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="H35">
+        <v>0.91</v>
+      </c>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+      <c r="J35">
+        <v>0.72761904761899998</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C36">
         <v>0.92</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F36">
         <v>8</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>55</v>
+      </c>
+      <c r="H36">
+        <v>0.93</v>
+      </c>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+      <c r="J36">
+        <v>0.49238095238099999</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37">
+        <f>AVERAGE(C34:C36)</f>
+        <v>0.92666666666666675</v>
+      </c>
+      <c r="E37">
+        <f>AVERAGE(E34:E36)</f>
+        <v>0.46761904761899997</v>
+      </c>
+      <c r="F37">
+        <v>8</v>
+      </c>
+      <c r="G37" t="s">
+        <v>94</v>
+      </c>
+      <c r="H37">
+        <f>AVERAGE(H34:H36)</f>
+        <v>0.92333333333333334</v>
+      </c>
+      <c r="J37">
+        <f>AVERAGE(J34:J36)</f>
+        <v>0.63682539682533335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C38">
         <v>0.92</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E38">
         <v>0.23238095238100001</v>
@@ -1293,21 +5390,30 @@
         <v>10</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>65</v>
+      </c>
+      <c r="H38">
+        <v>0.92</v>
+      </c>
+      <c r="I38" t="s">
+        <v>68</v>
+      </c>
+      <c r="J38">
+        <v>0.71523809523799997</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C39">
         <v>0.9</v>
       </c>
       <c r="D39" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E39">
         <v>0.70285714285699996</v>
@@ -1316,21 +5422,30 @@
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>66</v>
+      </c>
+      <c r="H39">
+        <v>0.92</v>
+      </c>
+      <c r="I39" t="s">
+        <v>57</v>
+      </c>
+      <c r="J39">
+        <v>0.72761904761899998</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C40">
         <v>0.9</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E40">
         <v>0.56666666666700005</v>
@@ -1339,160 +5454,58 @@
         <v>10</v>
       </c>
       <c r="G40" t="s">
-        <v>43</v>
+        <v>67</v>
+      </c>
+      <c r="H40">
+        <v>0.91</v>
+      </c>
+      <c r="I40" t="s">
+        <v>69</v>
+      </c>
+      <c r="J40">
+        <v>0.48</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G42" t="s">
-        <v>44</v>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <f>AVERAGE(C38:C40)</f>
+        <v>0.90666666666666673</v>
+      </c>
+      <c r="E41">
+        <f>AVERAGE(E38:E40)</f>
+        <v>0.50063492063500004</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <f>AVERAGE(H38:H40)</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="J41">
+        <f>AVERAGE(J38:J40)</f>
+        <v>0.64095238095233331</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G43" t="s">
-        <v>45</v>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <f>AVERAGE(H41,H37,H33,H29,H25)</f>
+        <v>0.71333333333333326</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G44" t="s">
-        <v>46</v>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <f>AVERAGE(C41,C37,C33,C29,C25)</f>
+        <v>0.71333333333333337</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G50" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G51" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G52" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G54" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G55" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G56" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G58" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G59" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G62" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G63" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G64" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G66" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G67" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G68" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G70" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G71" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G72" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="74" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G74" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="75" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G75" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="76" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G76" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G78" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G79" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G80" t="s">
-        <v>73</v>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I56" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>